--- a/project/excel/generic.xlsx
+++ b/project/excel/generic.xlsx
@@ -7,16 +7,50 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="QuantityValue" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Attribute" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="NamedThing" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Designation" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Name" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Identifier" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="EvidenceType" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="InformationResource" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Publication" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Association" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="MetaObject" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="QuantityValue" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Attribute" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ControlRole" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="BiologicalSex" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SeverityValue" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="NamedThing" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Designation" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Name" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Identifier" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Event" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Agent" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Project" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Dataset" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="DatasetDistribution" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="DatasetVersion" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="DatasetSummary" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="EvidenceType" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="InformationResource" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Publication" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="book" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="book chapter" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Serial" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Article" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Phenomenon" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Device" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Software" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Hardware" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="PlanetaryEntity" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="GeographicLocation" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="System" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="IndividualSystem" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="SystemAttribute" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="Environment" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="Component" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="Message" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="Rule" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="Instruction" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="Law" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="Regulation" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="Governance" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="Boundary" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Knowledge" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="Association" sheetId="44" state="visible" r:id="rId44"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -422,6 +456,864 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has text value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>identifies</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>distribution download url</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has dataset</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ingest date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has distribution</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>source web page</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>source logo</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -447,7 +1339,2228 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pages</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>summary</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>lcsh terms</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pages</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>summary</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>lcsh terms</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>published in</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>chapter</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>pages</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>summary</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>lcsh terms</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>iso abbreviation</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>issue</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>pages</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>summary</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>lcsh terms</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>published in</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>iso abbreviation</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>issue</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>pages</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>summary</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>lcsh terms</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>in taxon</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>in taxon</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>in taxon</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has attribute type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has quantitative value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has qualitative value</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>latitude</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>longitude</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>in taxon</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>in taxon</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has attribute type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has quantitative value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has qualitative value</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>in taxon</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>in taxon</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has attribute type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has quantitative value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has qualitative value</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -553,13 +3666,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,58 +3713,194 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has attribute type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has quantitative value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has qualitative value</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,32 +3921,62 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,266 +3997,47 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has text value</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>identifies</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>license</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>rights</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>format</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>creation date</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>license</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>rights</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>format</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>creation date</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>authors</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>pages</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>summary</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>keywords</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>lcsh terms</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
         <is>
           <t>xref</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>description</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>rights</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>format</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>creation date</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>description</t>
+          <t>has attribute</t>
         </is>
       </c>
     </row>

--- a/project/excel/generic.xlsx
+++ b/project/excel/generic.xlsx
@@ -37,7 +37,7 @@
     <sheet name="Hardware" sheetId="28" state="visible" r:id="rId28"/>
     <sheet name="PlanetaryEntity" sheetId="29" state="visible" r:id="rId29"/>
     <sheet name="GeographicLocation" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="System" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="OperationalEntity" sheetId="31" state="visible" r:id="rId31"/>
     <sheet name="IndividualSystem" sheetId="32" state="visible" r:id="rId32"/>
     <sheet name="SystemAttribute" sheetId="33" state="visible" r:id="rId33"/>
     <sheet name="Environment" sheetId="34" state="visible" r:id="rId34"/>
@@ -2452,6 +2452,82 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>is controller</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>in taxon</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2517,7 +2593,88 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has attribute type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has quantitative value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has qualitative value</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2588,7 +2745,422 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>in taxon</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2669,149 +3241,245 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>in taxon</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>provided by</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>xref</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>description</t>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>in taxon</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>license</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>rights</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>creation date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>provided by</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>xref</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>description</t>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2897,61 +3565,167 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>license</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>rights</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>format</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>creation date</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>predicate</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>negated</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>qualifiers</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>publications</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has evidence</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>primary knowledge source</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>aggregator knowledge source</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>timepoint</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has attribute type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has quantitative value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has qualitative value</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>provided by</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>xref</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
       <c r="I1" t="inlineStr">
         <is>
           <t>category</t>
@@ -2964,80 +3738,75 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>description</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>license</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>rights</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>format</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>creation date</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has attribute type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has quantitative value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>has qualitative value</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>provided by</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>xref</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
       <c r="I1" t="inlineStr">
         <is>
           <t>category</t>
@@ -3050,993 +3819,229 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>description</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>license</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>rights</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>format</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>creation date</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>provided by</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>xref</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>category</t>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has text value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>identifies</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>provided by</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>xref</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>name</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>description</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>has attribute type</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>has quantitative value</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>has qualitative value</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
+          <t>has attribute</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has text value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>identifies</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
         <is>
           <t>provided by</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>xref</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>category</t>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>iri</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>name</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>description</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>license</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>rights</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>format</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>creation date</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>provided by</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>xref</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>license</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>rights</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>format</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>creation date</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>provided by</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>xref</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>provided by</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>xref</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>license</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>rights</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>format</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>creation date</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>provided by</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>xref</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Q1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>predicate</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>negated</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>qualifiers</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>publications</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>has evidence</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>primary knowledge source</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>aggregator knowledge source</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>timepoint</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>has attribute type</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>has quantitative value</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>has qualitative value</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>provided by</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>xref</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>has attribute type</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>has quantitative value</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>has qualitative value</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>provided by</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>xref</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>provided by</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>xref</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has text value</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>identifies</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>provided by</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>xref</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>has attribute</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has text value</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>identifies</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>provided by</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>xref</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>iri</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
           <t>has attribute</t>
         </is>
       </c>
